--- a/smit.xlsx
+++ b/smit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidar\Documents\Rwd\covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{479B0F17-F208-45E0-B632-6D4603DD4832}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0158ECE0-BCB1-4E16-8709-FF3E1B7CDB1B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{094C835A-438E-42AE-AF14-3F3192771D4F}"/>
+    <workbookView xWindow="192" yWindow="3384" windowWidth="17280" windowHeight="8976" xr2:uid="{094C835A-438E-42AE-AF14-3F3192771D4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>smit</t>
+    <t>total_an_kina</t>
+  </si>
+  <si>
+    <t>iceland</t>
+  </si>
+  <si>
+    <t>usa</t>
   </si>
 </sst>
 </file>
@@ -72,10 +78,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,104 +397,739 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3777849-8B6A-4796-BA8C-F2A6A18B2A23}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
+        <v>43852</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>43853</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>43854</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>43855</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>43856</v>
+      </c>
+      <c r="C6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>43857</v>
+      </c>
+      <c r="C7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>43858</v>
+      </c>
+      <c r="C8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>43859</v>
+      </c>
+      <c r="C9">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>43860</v>
+      </c>
+      <c r="C10">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>43861</v>
+      </c>
+      <c r="C11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>43862</v>
+      </c>
+      <c r="C12">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>43863</v>
+      </c>
+      <c r="C13">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>43864</v>
+      </c>
+      <c r="C14">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>43865</v>
+      </c>
+      <c r="C15">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>43866</v>
+      </c>
+      <c r="C16">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>43867</v>
+      </c>
+      <c r="C17">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>43868</v>
+      </c>
+      <c r="C18">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>43869</v>
+      </c>
+      <c r="C19">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>43870</v>
+      </c>
+      <c r="C20">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>43871</v>
+      </c>
+      <c r="C21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>43872</v>
+      </c>
+      <c r="C22">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>43873</v>
+      </c>
+      <c r="C23">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>43874</v>
+      </c>
+      <c r="C24">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>43875</v>
+      </c>
+      <c r="C25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>43876</v>
+      </c>
+      <c r="C26">
+        <v>697</v>
+      </c>
+      <c r="D26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>43877</v>
+      </c>
+      <c r="C27">
+        <v>781</v>
+      </c>
+      <c r="D27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>43878</v>
+      </c>
+      <c r="C28">
+        <v>896</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>43879</v>
+      </c>
+      <c r="C29">
+        <v>999</v>
+      </c>
+      <c r="D29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>43880</v>
+      </c>
+      <c r="C30">
+        <v>1124</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>43881</v>
+      </c>
+      <c r="C31">
+        <v>1212</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>43882</v>
+      </c>
+      <c r="C32">
+        <v>1385</v>
+      </c>
+      <c r="D32">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>43883</v>
+      </c>
+      <c r="C33">
+        <v>1715</v>
+      </c>
+      <c r="D33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>43884</v>
+      </c>
+      <c r="C34">
+        <v>2055</v>
+      </c>
+      <c r="D34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>43885</v>
+      </c>
+      <c r="C35">
+        <v>2429</v>
+      </c>
+      <c r="D35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>43886</v>
+      </c>
+      <c r="C36">
+        <v>2764</v>
+      </c>
+      <c r="D36">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>43887</v>
+      </c>
+      <c r="C37">
+        <v>3323</v>
+      </c>
+      <c r="D37">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C38">
+        <v>4288</v>
+      </c>
+      <c r="D38">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>43889</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B39" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="C39">
+        <v>5364</v>
+      </c>
+      <c r="D39">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>43890</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>6780</v>
+      </c>
+      <c r="D40">
+        <v>68</v>
+      </c>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>43891</v>
       </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="B41" s="1">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>8559</v>
+      </c>
+      <c r="D41">
+        <v>75</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>43892</v>
       </c>
-      <c r="B5" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="B42" s="1">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>10292</v>
+      </c>
+      <c r="D42">
+        <v>100</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>43893</v>
       </c>
-      <c r="B6" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="B43" s="1">
+        <v>17</v>
+      </c>
+      <c r="C43">
+        <v>12746</v>
+      </c>
+      <c r="D43">
+        <v>124</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>43894</v>
       </c>
-      <c r="B7" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="B44" s="1">
+        <v>30</v>
+      </c>
+      <c r="C44">
+        <v>14905</v>
+      </c>
+      <c r="D44">
+        <v>158</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>43895</v>
       </c>
-      <c r="B8" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="B45" s="1">
+        <v>39</v>
+      </c>
+      <c r="C45">
+        <v>17873</v>
+      </c>
+      <c r="D45">
+        <v>221</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>43896</v>
       </c>
-      <c r="B9" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="B46" s="1">
+        <v>47</v>
+      </c>
+      <c r="C46">
+        <v>21399</v>
+      </c>
+      <c r="D46">
+        <v>319</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
         <v>43897</v>
       </c>
-      <c r="B10" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="B47" s="1">
+        <v>53</v>
+      </c>
+      <c r="C47">
+        <v>25404</v>
+      </c>
+      <c r="D47">
+        <v>435</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>43898</v>
       </c>
-      <c r="B11" s="1">
-        <v>58</v>
-      </c>
+      <c r="B48" s="1">
+        <v>59</v>
+      </c>
+      <c r="C48">
+        <v>29256</v>
+      </c>
+      <c r="D48">
+        <v>541</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>43899</v>
+      </c>
+      <c r="B49">
+        <v>68</v>
+      </c>
+      <c r="C49">
+        <v>33627</v>
+      </c>
+      <c r="D49">
+        <v>704</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>43900</v>
+      </c>
+      <c r="B50">
+        <v>82</v>
+      </c>
+      <c r="C50">
+        <v>38170</v>
+      </c>
+      <c r="D50">
+        <v>994</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B51">
+        <v>106</v>
+      </c>
+      <c r="C51" s="3">
+        <v>45421</v>
+      </c>
+      <c r="D51">
+        <v>1301</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>43902</v>
+      </c>
+      <c r="B52">
+        <v>122</v>
+      </c>
+      <c r="C52" s="3">
+        <v>53763</v>
+      </c>
+      <c r="D52">
+        <v>1697</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>43903</v>
+      </c>
+      <c r="B53">
+        <v>142</v>
+      </c>
+      <c r="C53" s="3">
+        <v>64659</v>
+      </c>
+      <c r="D53">
+        <v>2247</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>43904</v>
+      </c>
+      <c r="B54">
+        <v>166</v>
+      </c>
+      <c r="C54" s="3">
+        <v>75809</v>
+      </c>
+      <c r="D54">
+        <v>2943</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B55">
+        <v>186</v>
+      </c>
+      <c r="C55" s="3">
+        <v>88733</v>
+      </c>
+      <c r="D55">
+        <v>3680</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>43906</v>
+      </c>
+      <c r="B56">
+        <v>206</v>
+      </c>
+      <c r="C56" s="3">
+        <v>101609</v>
+      </c>
+      <c r="D56">
+        <v>4663</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B57">
+        <v>258</v>
+      </c>
+      <c r="C57" s="3">
+        <v>117344</v>
+      </c>
+      <c r="D57">
+        <v>6411</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>43908</v>
+      </c>
+      <c r="B58">
+        <v>334</v>
+      </c>
+      <c r="C58" s="3">
+        <v>137894</v>
+      </c>
+      <c r="D58">
+        <v>9259</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>43909</v>
+      </c>
+      <c r="B59">
+        <v>409</v>
+      </c>
+      <c r="C59" s="3">
+        <v>163966</v>
+      </c>
+      <c r="D59">
+        <v>13789</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>43910</v>
+      </c>
+      <c r="D60">
+        <v>19069</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="2"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>